--- a/Private/Vương/4. Timelog/PM_TimeLog_Vương.xlsx
+++ b/Private/Vương/4. Timelog/PM_TimeLog_Vương.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Vương\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Capstone-Project\Private\Vương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="94">
   <si>
     <t>Work in period</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>Install qgis</t>
+  </si>
+  <si>
+    <t>Research GIS</t>
+  </si>
+  <si>
+    <t>Install react</t>
+  </si>
+  <si>
+    <t>research react</t>
+  </si>
+  <si>
+    <t>Document quality management</t>
   </si>
 </sst>
 </file>
@@ -1009,6 +1021,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,18 +1049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4110,17 +4122,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -4320,21 +4332,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="70">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="70">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -4508,21 +4520,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="70">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="70">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4555,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4586,17 +4598,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -4769,7 +4781,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="72">
+      <c r="E9" s="66">
         <v>43757</v>
       </c>
       <c r="F9" s="9">
@@ -4788,7 +4800,7 @@
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="72"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="18"/>
@@ -4801,21 +4813,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="70">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="70">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -4830,7 +4842,7 @@
       <c r="D12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="67">
         <v>43759</v>
       </c>
       <c r="F12" s="8">
@@ -4857,7 +4869,7 @@
       <c r="D13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="68">
         <v>43760</v>
       </c>
       <c r="F13" s="8">
@@ -4882,7 +4894,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="75">
+      <c r="E14" s="69">
         <v>43761</v>
       </c>
       <c r="F14" s="9">
@@ -4909,7 +4921,7 @@
       <c r="D15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="68">
         <v>43762</v>
       </c>
       <c r="F15" s="9"/>
@@ -4932,7 +4944,7 @@
       <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="66">
         <v>43763</v>
       </c>
       <c r="F16" s="9"/>
@@ -4987,24 +4999,247 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="70">
         <f>SUM(F12:F18)</f>
         <v>18.5</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="70">
         <f>SUM(G12:G18)</f>
         <v>22</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="71"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>3</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="67">
+        <v>43766</v>
+      </c>
+      <c r="F21" s="8">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>3</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="68">
+        <v>43767</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>3</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="69">
+        <v>43768</v>
+      </c>
+      <c r="F23" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>3</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="68">
+        <v>43769</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>3</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="66">
+        <v>43739</v>
+      </c>
+      <c r="F25" s="9">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>3</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="66">
+        <v>43740</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="70">
+        <f>SUM(F21:F27)</f>
+        <v>30</v>
+      </c>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="70">
+        <f>SUM(G21:G27)</f>
+        <v>29</v>
+      </c>
+      <c r="I28" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
@@ -5012,16 +5247,16 @@
     <mergeCell ref="H19:I19"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C27">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17 C9:D9 C4:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17 C9:D9 C4:C8 C21:C26">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H21:H27">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B20">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
@@ -5036,7 +5271,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:XFD1048576"/>
+      <selection activeCell="H11" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5063,17 +5298,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -5112,14 +5347,20 @@
         <v>9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="67">
+        <v>43766</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
       <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
@@ -5133,14 +5374,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="68">
+        <v>43767</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
       <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
@@ -5154,14 +5399,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="69">
+        <v>43768</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -5175,14 +5424,20 @@
         <v>12</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="68">
+        <v>43769</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
       <c r="H7" s="18" t="s">
         <v>20</v>
       </c>
@@ -5196,14 +5451,20 @@
         <v>13</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="66">
+        <v>43739</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
       <c r="H8" s="18" t="s">
         <v>20</v>
       </c>
@@ -5216,11 +5477,21 @@
       <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="66">
+        <v>43740</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
       <c r="H9" s="18" t="s">
         <v>20</v>
       </c>
@@ -5244,21 +5515,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="70">
         <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="70">
         <f>SUM(G4:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="67"/>
+        <v>29</v>
+      </c>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -5402,21 +5673,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="70">
         <f>SUM(F12:F18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="70">
         <f>SUM(G12:G18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5442,5 +5713,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Private/Vương/4. Timelog/PM_TimeLog_Vương.xlsx
+++ b/Private/Vương/4. Timelog/PM_TimeLog_Vương.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
   <si>
     <t>Work in period</t>
   </si>
@@ -862,7 +862,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1049,6 +1049,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4567,10 +4594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="AV7" workbookViewId="0">
+      <selection activeCell="BF7" sqref="BF1:BF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4584,7 +4611,7 @@
     <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -4597,7 +4624,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
@@ -4610,7 +4637,7 @@
       <c r="H2" s="74"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -4639,7 +4666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -4664,7 +4691,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4691,7 +4718,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4718,7 +4745,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4744,8 +4771,9 @@
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4770,7 +4798,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4795,7 +4823,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -4806,7 +4834,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -4829,51 +4857,35 @@
       </c>
       <c r="I11" s="71"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="67">
-        <v>43759</v>
-      </c>
-      <c r="F12" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>6</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>10</v>
+      <c r="B13" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="68">
-        <v>43760</v>
+        <v>88</v>
+      </c>
+      <c r="E13" s="67">
+        <v>43759</v>
       </c>
       <c r="F13" s="8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G13" s="8">
         <v>6</v>
@@ -4883,69 +4895,73 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>11</v>
+      <c r="B14" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="69">
-        <v>43761</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="68">
+        <v>43760</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>2</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="68">
-        <v>43762</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="69">
+        <v>43761</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4</v>
+      </c>
       <c r="H15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>2</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="66">
-        <v>43763</v>
+        <v>86</v>
+      </c>
+      <c r="E16" s="68">
+        <v>43762</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -4959,213 +4975,192 @@
         <v>2</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="20">
-        <v>43764</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E17" s="66">
+        <v>43763</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="20">
+        <v>43764</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="70">
-        <f>SUM(F12:F18)</f>
+      <c r="C20" s="70">
+        <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="7" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="70">
-        <f>SUM(G12:G18)</f>
+      <c r="H20" s="70">
+        <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I19" s="71"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="79"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B22" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>3</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="67">
-        <v>43766</v>
-      </c>
-      <c r="F21" s="8">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>5</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>3</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="68">
-        <v>43767</v>
-      </c>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8">
-        <v>4</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>3</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>11</v>
+      <c r="B23" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="69">
-        <v>43768</v>
-      </c>
-      <c r="F23" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="G23" s="9">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="67">
+        <v>43766</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8">
         <v>5</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>12</v>
+      <c r="B24" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D24" s="17"/>
       <c r="E24" s="68">
-        <v>43769</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9">
-        <v>5</v>
+        <v>43767</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>3</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="66">
-        <v>43739</v>
+        <v>61</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="69">
+        <v>43768</v>
       </c>
       <c r="F25" s="9">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G25" s="9">
         <v>5</v>
@@ -5180,19 +5175,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="66">
-        <v>43740</v>
+        <v>92</v>
+      </c>
+      <c r="E26" s="68">
+        <v>43769</v>
       </c>
       <c r="F26" s="9">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G26" s="9">
         <v>5</v>
@@ -5202,61 +5197,338 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>3</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="66">
+        <v>43739</v>
+      </c>
+      <c r="F27" s="9">
+        <v>6</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="66">
+        <v>43740</v>
+      </c>
+      <c r="F28" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G28" s="9">
+        <v>5</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="70">
-        <f>SUM(F21:F27)</f>
+      <c r="C30" s="70">
+        <f>SUM(F23:F29)</f>
         <v>30</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="7" t="s">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="70">
-        <f>SUM(G21:G27)</f>
+      <c r="H30" s="70">
+        <f>SUM(G23:G29)</f>
         <v>29</v>
       </c>
-      <c r="I28" s="71"/>
+      <c r="I30" s="71"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>5</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="67">
+        <v>43780</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>5</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="67">
+        <v>43780</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4</v>
+      </c>
+      <c r="G35" s="8">
+        <v>4</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>5</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="67">
+        <v>43780</v>
+      </c>
+      <c r="F36" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
+        <v>5</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="67">
+        <v>43780</v>
+      </c>
+      <c r="F37" s="9">
+        <v>5</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12">
+        <v>5</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="67">
+        <v>43780</v>
+      </c>
+      <c r="F38" s="9">
+        <v>6</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>5</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="67">
+        <v>43780</v>
+      </c>
+      <c r="F39" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G39" s="9">
+        <v>5</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="70">
+        <f>SUM(F34:F40)</f>
+        <v>30</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="70">
+        <f>SUM(G34:G40)</f>
+        <v>29</v>
+      </c>
+      <c r="I41" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
+  <mergeCells count="9">
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C29 C40">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17 C9:D9 C4:C8 C21:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C18 C9:D9 C4:C8 C23:C28 C34:C39">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H21:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H23:H29 H34:H40">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B20">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B22 B33">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>

--- a/Private/Vương/4. Timelog/PM_TimeLog_Vương.xlsx
+++ b/Private/Vương/4. Timelog/PM_TimeLog_Vương.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Capstone-Project\Private\Vương\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Documents\GitHub\Capstone-Project\Private\Vương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE84CDD-4E7E-46B6-AFD7-2944166BCDBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
-    <sheet name="Đạt Huỳnh" sheetId="8" r:id="rId2"/>
-    <sheet name="Vương Trương" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="Vương Trương" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="112">
   <si>
     <t>Work in period</t>
   </si>
@@ -248,9 +248,6 @@
     <t>17/10/2019</t>
   </si>
   <si>
-    <t>Create Configuration Management Plan</t>
-  </si>
-  <si>
     <t>20/10/2019</t>
   </si>
   <si>
@@ -275,36 +272,15 @@
     <t>25/10/2019</t>
   </si>
   <si>
-    <t>Resreach information WebGIS</t>
-  </si>
-  <si>
-    <t>Resreach coding language</t>
-  </si>
-  <si>
-    <t>Create TimeLog</t>
-  </si>
-  <si>
-    <t>Resreach &amp; Create template documments</t>
-  </si>
-  <si>
-    <t>26/10/2029</t>
-  </si>
-  <si>
     <t>Presentation Customer Documments</t>
   </si>
   <si>
-    <t>PM_ConfigurationManagementPlan_Ver1.0.docx</t>
-  </si>
-  <si>
     <t>research webgis</t>
   </si>
   <si>
     <t>find another app like webgis</t>
   </si>
   <si>
-    <t>choose model</t>
-  </si>
-  <si>
     <t>Install qgis</t>
   </si>
   <si>
@@ -318,17 +294,96 @@
   </si>
   <si>
     <t>Document quality management</t>
+  </si>
+  <si>
+    <t>Meeting team</t>
+  </si>
+  <si>
+    <t>26/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>Research firebase</t>
+  </si>
+  <si>
+    <t>Connect firebase with project</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Architecter plan document</t>
+  </si>
+  <si>
+    <t>Research model</t>
+  </si>
+  <si>
+    <t>Architecture process document</t>
+  </si>
+  <si>
+    <t>Meetting mentor</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>UC description</t>
+  </si>
+  <si>
+    <t>Data design</t>
+  </si>
+  <si>
+    <t>Data distionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architect </t>
+  </si>
+  <si>
+    <t>Architecture driver document</t>
+  </si>
+  <si>
+    <t>Architecture design document</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Detail design</t>
+  </si>
+  <si>
+    <t>UC description detail module 1</t>
+  </si>
+  <si>
+    <t>Install react native invironment</t>
+  </si>
+  <si>
+    <t>Research JS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +446,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -424,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -845,6 +893,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,7 +925,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,12 +1096,53 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,46 +1155,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1108,7 +1191,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1342,10 +1425,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
@@ -3233,13 +3316,13 @@
       <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="38">
-        <f>'Đạt Huỳnh'!C11</f>
-        <v>24</v>
-      </c>
-      <c r="C2" s="38">
-        <f>'Đạt Huỳnh'!C19</f>
-        <v>22</v>
+      <c r="B2" s="38" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="38" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
@@ -3276,9 +3359,9 @@
       <c r="AJ2" s="40"/>
       <c r="AK2" s="40"/>
       <c r="AL2" s="40"/>
-      <c r="AM2" s="40">
+      <c r="AM2" s="40" t="e">
         <f>SUM(B2:AL2)</f>
-        <v>46</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3458,153 +3541,153 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+      <c r="B7" s="14" t="e">
         <f>SUM(B2:B6)</f>
-        <v>24</v>
-      </c>
-      <c r="C7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="14" t="e">
         <f t="shared" ref="C7:R7" si="1">SUM(C2:C6)+B7</f>
-        <v>46</v>
-      </c>
-      <c r="D7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="G7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="H7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="I7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="J7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="L7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="M7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="N7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="N7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="O7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="P7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="P7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="Q7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="R7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="R7" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="S7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="S7" s="14" t="e">
         <f t="shared" ref="S7" si="2">SUM(S2:S6)+R7</f>
-        <v>46</v>
-      </c>
-      <c r="T7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="T7" s="14" t="e">
         <f t="shared" ref="T7" si="3">SUM(T2:T6)+S7</f>
-        <v>46</v>
-      </c>
-      <c r="U7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="U7" s="14" t="e">
         <f t="shared" ref="U7" si="4">SUM(U2:U6)+T7</f>
-        <v>46</v>
-      </c>
-      <c r="V7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="V7" s="14" t="e">
         <f t="shared" ref="V7" si="5">SUM(V2:V6)+U7</f>
-        <v>46</v>
-      </c>
-      <c r="W7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="W7" s="14" t="e">
         <f t="shared" ref="W7" si="6">SUM(W2:W6)+V7</f>
-        <v>46</v>
-      </c>
-      <c r="X7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="X7" s="14" t="e">
         <f t="shared" ref="X7" si="7">SUM(X2:X6)+W7</f>
-        <v>46</v>
-      </c>
-      <c r="Y7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="Y7" s="14" t="e">
         <f t="shared" ref="Y7" si="8">SUM(Y2:Y6)+X7</f>
-        <v>46</v>
-      </c>
-      <c r="Z7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="Z7" s="14" t="e">
         <f t="shared" ref="Z7" si="9">SUM(Z2:Z6)+Y7</f>
-        <v>46</v>
-      </c>
-      <c r="AA7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AA7" s="14" t="e">
         <f t="shared" ref="AA7" si="10">SUM(AA2:AA6)+Z7</f>
-        <v>46</v>
-      </c>
-      <c r="AB7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AB7" s="14" t="e">
         <f t="shared" ref="AB7" si="11">SUM(AB2:AB6)+AA7</f>
-        <v>46</v>
-      </c>
-      <c r="AC7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AC7" s="14" t="e">
         <f t="shared" ref="AC7" si="12">SUM(AC2:AC6)+AB7</f>
-        <v>46</v>
-      </c>
-      <c r="AD7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AD7" s="14" t="e">
         <f t="shared" ref="AD7" si="13">SUM(AD2:AD6)+AC7</f>
-        <v>46</v>
-      </c>
-      <c r="AE7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AE7" s="14" t="e">
         <f t="shared" ref="AE7" si="14">SUM(AE2:AE6)+AD7</f>
-        <v>46</v>
-      </c>
-      <c r="AF7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AF7" s="14" t="e">
         <f t="shared" ref="AF7" si="15">SUM(AF2:AF6)+AE7</f>
-        <v>46</v>
-      </c>
-      <c r="AG7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AG7" s="14" t="e">
         <f t="shared" ref="AG7" si="16">SUM(AG2:AG6)+AF7</f>
-        <v>46</v>
-      </c>
-      <c r="AH7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AH7" s="14" t="e">
         <f t="shared" ref="AH7" si="17">SUM(AH2:AH6)+AG7</f>
-        <v>46</v>
-      </c>
-      <c r="AI7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AI7" s="14" t="e">
         <f t="shared" ref="AI7" si="18">SUM(AI2:AI6)+AH7</f>
-        <v>46</v>
-      </c>
-      <c r="AJ7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ7" s="14" t="e">
         <f t="shared" ref="AJ7" si="19">SUM(AJ2:AJ6)+AI7</f>
-        <v>46</v>
-      </c>
-      <c r="AK7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AK7" s="14" t="e">
         <f t="shared" ref="AK7" si="20">SUM(AK2:AK6)+AJ7</f>
-        <v>46</v>
-      </c>
-      <c r="AL7" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AL7" s="14" t="e">
         <f t="shared" ref="AL7" si="21">SUM(AL2:AL6)+AK7</f>
-        <v>46</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3730,13 +3813,13 @@
       <c r="A9" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="55">
-        <f>'Đạt Huỳnh'!H11</f>
-        <v>24</v>
-      </c>
-      <c r="C9" s="56">
-        <f>'Đạt Huỳnh'!H19</f>
-        <v>34</v>
+      <c r="B9" s="55" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="56" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="56"/>
@@ -3773,9 +3856,9 @@
       <c r="AJ9" s="55"/>
       <c r="AK9" s="55"/>
       <c r="AL9" s="55"/>
-      <c r="AM9" s="55">
+      <c r="AM9" s="55" t="e">
         <f>SUM(B9:AL9)</f>
-        <v>58</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3955,153 +4038,153 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="B14" s="14" t="e">
         <f>SUM(B9:B13)</f>
-        <v>24</v>
-      </c>
-      <c r="C14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="14" t="e">
         <f t="shared" ref="C14:R14" si="23">SUM(C9:C13)+B14</f>
-        <v>58</v>
-      </c>
-      <c r="D14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="E14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="F14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="G14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="H14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="I14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="J14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="K14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="L14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="M14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="N14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="O14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="P14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="Q14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="R14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="R14" s="14" t="e">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="S14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="S14" s="14" t="e">
         <f t="shared" ref="S14" si="24">SUM(S9:S13)+R14</f>
-        <v>58</v>
-      </c>
-      <c r="T14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="T14" s="14" t="e">
         <f t="shared" ref="T14" si="25">SUM(T9:T13)+S14</f>
-        <v>58</v>
-      </c>
-      <c r="U14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="U14" s="14" t="e">
         <f t="shared" ref="U14" si="26">SUM(U9:U13)+T14</f>
-        <v>58</v>
-      </c>
-      <c r="V14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="V14" s="14" t="e">
         <f t="shared" ref="V14" si="27">SUM(V9:V13)+U14</f>
-        <v>58</v>
-      </c>
-      <c r="W14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="14" t="e">
         <f t="shared" ref="W14" si="28">SUM(W9:W13)+V14</f>
-        <v>58</v>
-      </c>
-      <c r="X14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="X14" s="14" t="e">
         <f t="shared" ref="X14" si="29">SUM(X9:X13)+W14</f>
-        <v>58</v>
-      </c>
-      <c r="Y14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="Y14" s="14" t="e">
         <f t="shared" ref="Y14" si="30">SUM(Y9:Y13)+X14</f>
-        <v>58</v>
-      </c>
-      <c r="Z14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="Z14" s="14" t="e">
         <f t="shared" ref="Z14" si="31">SUM(Z9:Z13)+Y14</f>
-        <v>58</v>
-      </c>
-      <c r="AA14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AA14" s="14" t="e">
         <f t="shared" ref="AA14" si="32">SUM(AA9:AA13)+Z14</f>
-        <v>58</v>
-      </c>
-      <c r="AB14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AB14" s="14" t="e">
         <f t="shared" ref="AB14" si="33">SUM(AB9:AB13)+AA14</f>
-        <v>58</v>
-      </c>
-      <c r="AC14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AC14" s="14" t="e">
         <f t="shared" ref="AC14" si="34">SUM(AC9:AC13)+AB14</f>
-        <v>58</v>
-      </c>
-      <c r="AD14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AD14" s="14" t="e">
         <f t="shared" ref="AD14" si="35">SUM(AD9:AD13)+AC14</f>
-        <v>58</v>
-      </c>
-      <c r="AE14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AE14" s="14" t="e">
         <f t="shared" ref="AE14" si="36">SUM(AE9:AE13)+AD14</f>
-        <v>58</v>
-      </c>
-      <c r="AF14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AF14" s="14" t="e">
         <f t="shared" ref="AF14" si="37">SUM(AF9:AF13)+AE14</f>
-        <v>58</v>
-      </c>
-      <c r="AG14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AG14" s="14" t="e">
         <f t="shared" ref="AG14" si="38">SUM(AG9:AG13)+AF14</f>
-        <v>58</v>
-      </c>
-      <c r="AH14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AH14" s="14" t="e">
         <f t="shared" ref="AH14" si="39">SUM(AH9:AH13)+AG14</f>
-        <v>58</v>
-      </c>
-      <c r="AI14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AI14" s="14" t="e">
         <f t="shared" ref="AI14" si="40">SUM(AI9:AI13)+AH14</f>
-        <v>58</v>
-      </c>
-      <c r="AJ14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ14" s="14" t="e">
         <f t="shared" ref="AJ14" si="41">SUM(AJ9:AJ13)+AI14</f>
-        <v>58</v>
-      </c>
-      <c r="AK14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AK14" s="14" t="e">
         <f t="shared" ref="AK14" si="42">SUM(AK9:AK13)+AJ14</f>
-        <v>58</v>
-      </c>
-      <c r="AL14" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="AL14" s="14" t="e">
         <f t="shared" ref="AL14" si="43">SUM(AL9:AL13)+AK14</f>
-        <v>58</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4112,492 +4195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="12.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="8">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="K5" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="9">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="70">
-        <f>SUM(F4:F10)</f>
-        <v>24</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="70">
-        <f>SUM(G4:G10)</f>
-        <v>24</v>
-      </c>
-      <c r="I11" s="71"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="8">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8">
-        <v>6</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="8">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8">
-        <v>6</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>2</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>2</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="9">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9">
-        <v>6</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
-        <v>6</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>2</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
-        <v>6</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="70">
-        <f>SUM(F12:F18)</f>
-        <v>22</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="70">
-        <f>SUM(G12:G18)</f>
-        <v>34</v>
-      </c>
-      <c r="I19" s="71"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18">
-      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17">
-      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18">
-      <formula1>"Done,Inprogress "</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>B4</formula1>
-      <formula2>B10</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV7" workbookViewId="0">
-      <selection activeCell="BF7" sqref="BF1:BF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4625,17 +4227,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -4699,10 +4301,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>67</v>
@@ -4726,10 +4328,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>68</v>
@@ -4753,10 +4355,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>69</v>
@@ -4806,11 +4408,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="66">
-        <v>43757</v>
+        <v>94</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="F9" s="9">
         <v>4</v>
@@ -4823,171 +4427,162 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="86">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="86">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="71"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="84"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:19" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="67">
-        <v>43759</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="C14" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>2</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="68">
-        <v>43760</v>
-      </c>
-      <c r="F14" s="8">
-        <v>5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>6</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>11</v>
+      <c r="B15" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="69">
-        <v>43761</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>12</v>
+      <c r="B16" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="68">
-        <v>43762</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>6</v>
+      </c>
       <c r="H16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>2</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="66">
-        <v>43763</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4</v>
+      </c>
       <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
@@ -4998,19 +4593,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="20">
-        <v>43764</v>
+        <v>79</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="9">
         <v>6</v>
@@ -5020,228 +4615,211 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="9">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9">
+        <v>6</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>2</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="70">
-        <f>SUM(F13:F19)</f>
-        <v>18.5</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="7" t="s">
+      <c r="C22" s="86">
+        <f>SUM(F15:F21)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="70">
-        <f>SUM(G13:G19)</f>
-        <v>22</v>
-      </c>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="79"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+      <c r="H22" s="86">
+        <f>SUM(G15:G21)</f>
+        <v>34</v>
+      </c>
+      <c r="I22" s="86"/>
+    </row>
+    <row r="23" spans="1:9" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="1:9" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B25" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C25" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="E25" s="77"/>
+      <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>3</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="67">
-        <v>43766</v>
-      </c>
-      <c r="F23" s="8">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>5</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>3</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="68">
-        <v>43767</v>
-      </c>
-      <c r="F24" s="8">
-        <v>4</v>
-      </c>
-      <c r="G24" s="8">
-        <v>4</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>3</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="69">
-        <v>43768</v>
-      </c>
-      <c r="F25" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="G25" s="9">
-        <v>5</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>12</v>
+      <c r="B26" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="68">
-        <v>43769</v>
-      </c>
-      <c r="F26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="8">
         <v>5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>5</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>3</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>13</v>
+      <c r="B27" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="66">
-        <v>43739</v>
-      </c>
-      <c r="F27" s="9">
-        <v>6</v>
-      </c>
-      <c r="G27" s="9">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>3</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="66">
-        <v>43740</v>
+        <v>11</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="9">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G28" s="9">
         <v>5</v>
@@ -5251,221 +4829,241 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>3</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>3</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="77">
+        <v>43476</v>
+      </c>
+      <c r="F30" s="9">
+        <v>6</v>
+      </c>
+      <c r="G30" s="9">
+        <v>5</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>3</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="77">
+        <v>43507</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G31" s="9">
+        <v>5</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="83"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="70">
-        <f>SUM(F23:F29)</f>
+      <c r="C33" s="86">
+        <f>SUM(F26:F32)</f>
         <v>30</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="7" t="s">
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="70">
-        <f>SUM(G23:G29)</f>
+      <c r="H33" s="86">
+        <f>SUM(G26:G32)</f>
         <v>29</v>
       </c>
-      <c r="I30" s="71"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
+      <c r="I33" s="86"/>
+    </row>
+    <row r="34" spans="1:9" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+    </row>
+    <row r="35" spans="1:9" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B36" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C36" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <v>5</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="67">
-        <v>43780</v>
-      </c>
-      <c r="F34" s="8">
-        <v>5</v>
-      </c>
-      <c r="G34" s="8">
-        <v>5</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <v>5</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="67">
-        <v>43780</v>
-      </c>
-      <c r="F35" s="8">
-        <v>4</v>
-      </c>
-      <c r="G35" s="8">
-        <v>4</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
-        <v>5</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="67">
-        <v>43780</v>
-      </c>
-      <c r="F36" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="G36" s="9">
-        <v>5</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
-        <v>5</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="67">
-        <v>43780</v>
-      </c>
-      <c r="F37" s="9">
-        <v>5</v>
-      </c>
-      <c r="G37" s="9">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="22">
+        <v>43773</v>
+      </c>
+      <c r="F37" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="8">
+        <v>6</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
-        <v>5</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="67">
-        <v>43780</v>
-      </c>
-      <c r="F38" s="9">
-        <v>6</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="22">
+        <v>43774</v>
+      </c>
+      <c r="F38" s="8">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8">
+        <v>4</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I38" s="78"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="67">
-        <v>43780</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="22">
+        <v>43775</v>
       </c>
       <c r="F39" s="9">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>20</v>
@@ -5473,62 +5071,1465 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="12">
+        <v>4</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="22">
+        <v>43776</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="12">
+        <v>4</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="22">
+        <v>43777</v>
+      </c>
+      <c r="F41" s="9">
+        <v>5</v>
+      </c>
+      <c r="G41" s="9">
+        <v>5</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
+        <v>4</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="22">
+        <v>43778</v>
+      </c>
+      <c r="F42" s="9">
+        <v>6</v>
+      </c>
+      <c r="G42" s="9">
+        <v>6</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="70">
-        <f>SUM(F34:F40)</f>
+      <c r="C44" s="84">
+        <f>SUM(F37:F43)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="84">
+        <f>SUM(G37:G43)</f>
         <v>30</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="7" t="s">
+      <c r="I44" s="85"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="78"/>
+      <c r="F47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12">
+        <v>5</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="21">
+        <v>43780</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5</v>
+      </c>
+      <c r="G48" s="8">
+        <v>5</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12">
+        <v>5</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="22">
+        <v>43781</v>
+      </c>
+      <c r="F49" s="8">
+        <v>4</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12">
+        <v>5</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="22">
+        <v>43782</v>
+      </c>
+      <c r="F50" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="9">
+        <v>5</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
+        <v>5</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="22">
+        <v>43783</v>
+      </c>
+      <c r="F51" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G51" s="9">
+        <v>6</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12">
+        <v>5</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="22">
+        <v>43784</v>
+      </c>
+      <c r="F52" s="9">
+        <v>6</v>
+      </c>
+      <c r="G52" s="9">
+        <v>6</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12">
+        <v>5</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="22">
+        <v>43785</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G53" s="9">
+        <v>6</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="84">
+        <f>SUM(F48:F54)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="70">
-        <f>SUM(G34:G40)</f>
-        <v>29</v>
-      </c>
-      <c r="I41" s="71"/>
+      <c r="H55" s="84">
+        <f>SUM(G48:G54)</f>
+        <v>32</v>
+      </c>
+      <c r="I55" s="85"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="78"/>
+      <c r="F58" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>6</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="21">
+        <v>43786</v>
+      </c>
+      <c r="F59" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G59" s="8">
+        <v>6</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>6</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="21">
+        <v>43787</v>
+      </c>
+      <c r="F60" s="8">
+        <v>4</v>
+      </c>
+      <c r="G60" s="8">
+        <v>4</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>6</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="21">
+        <v>43788</v>
+      </c>
+      <c r="F61" s="81">
+        <v>4.5</v>
+      </c>
+      <c r="G61" s="81">
+        <v>5</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>6</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="21">
+        <v>43789</v>
+      </c>
+      <c r="F62" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G62" s="81">
+        <v>6</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>6</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="21">
+        <v>43790</v>
+      </c>
+      <c r="F63" s="81">
+        <v>6</v>
+      </c>
+      <c r="G63" s="81">
+        <v>5</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12">
+        <v>6</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="21">
+        <v>43791</v>
+      </c>
+      <c r="F64" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="81">
+        <v>5</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="84">
+        <f>SUM(F59:F65)</f>
+        <v>31</v>
+      </c>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="84">
+        <f>SUM(G59:G65)</f>
+        <v>31</v>
+      </c>
+      <c r="I66" s="85"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="78"/>
+      <c r="F69" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>7</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="21">
+        <v>43793</v>
+      </c>
+      <c r="F70" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G70" s="81">
+        <v>6</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>7</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="21">
+        <v>43794</v>
+      </c>
+      <c r="F71" s="8">
+        <v>4</v>
+      </c>
+      <c r="G71" s="8">
+        <v>4</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>7</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="21">
+        <v>43795</v>
+      </c>
+      <c r="F72" s="81">
+        <v>4.5</v>
+      </c>
+      <c r="G72" s="81">
+        <v>5</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>7</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="21">
+        <v>43796</v>
+      </c>
+      <c r="F73" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G73" s="81">
+        <v>6</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>7</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="21">
+        <v>43797</v>
+      </c>
+      <c r="F74" s="81">
+        <v>6</v>
+      </c>
+      <c r="G74" s="81">
+        <v>5</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="12">
+        <v>7</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="21">
+        <v>43798</v>
+      </c>
+      <c r="F75" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G75" s="81">
+        <v>5</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="84">
+        <f>SUM(F70:F76)</f>
+        <v>31</v>
+      </c>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="84">
+        <f>SUM(G70:G76)</f>
+        <v>31</v>
+      </c>
+      <c r="I77" s="85"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="78"/>
+      <c r="F80" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>8</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="21">
+        <v>43800</v>
+      </c>
+      <c r="F81" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G81" s="8">
+        <v>6</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>8</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="21">
+        <v>43801</v>
+      </c>
+      <c r="F82" s="8">
+        <v>4</v>
+      </c>
+      <c r="G82" s="8">
+        <v>4</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <v>8</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="21">
+        <v>43802</v>
+      </c>
+      <c r="F83" s="81">
+        <v>6</v>
+      </c>
+      <c r="G83" s="81">
+        <v>6</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <v>8</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="21">
+        <v>43803</v>
+      </c>
+      <c r="F84" s="81">
+        <v>5</v>
+      </c>
+      <c r="G84" s="81">
+        <v>5</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>8</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="21">
+        <v>43804</v>
+      </c>
+      <c r="F85" s="81">
+        <v>6</v>
+      </c>
+      <c r="G85" s="81">
+        <v>6</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12">
+        <v>8</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="21">
+        <v>43805</v>
+      </c>
+      <c r="F86" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G86" s="81">
+        <v>5</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="84">
+        <f>SUM(F81:F87)</f>
+        <v>32</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="84">
+        <f>SUM(G81:G87)</f>
+        <v>32</v>
+      </c>
+      <c r="I88" s="85"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="78"/>
+      <c r="F91" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>9</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="21">
+        <v>43807</v>
+      </c>
+      <c r="F92" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G92" s="8">
+        <v>6</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <v>9</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="21">
+        <v>43808</v>
+      </c>
+      <c r="F93" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G93" s="8">
+        <v>6</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <v>9</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="21">
+        <v>43809</v>
+      </c>
+      <c r="F94" s="81">
+        <v>4.5</v>
+      </c>
+      <c r="G94" s="81">
+        <v>5</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>9</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="21">
+        <v>43810</v>
+      </c>
+      <c r="F95" s="81">
+        <v>5</v>
+      </c>
+      <c r="G95" s="81">
+        <v>5</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <v>9</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="21">
+        <v>43811</v>
+      </c>
+      <c r="F96" s="81">
+        <v>4</v>
+      </c>
+      <c r="G96" s="81">
+        <v>4</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12">
+        <v>9</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="21">
+        <v>43812</v>
+      </c>
+      <c r="F97" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G97" s="81">
+        <v>5</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="84">
+        <f>SUM(F92:F98)</f>
+        <v>30</v>
+      </c>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="84">
+        <f>SUM(G92:G98)</f>
+        <v>31</v>
+      </c>
+      <c r="I99" s="85"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="78"/>
+      <c r="F102" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>10</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="21">
+        <v>43814</v>
+      </c>
+      <c r="F103" s="8">
+        <v>5</v>
+      </c>
+      <c r="G103" s="8">
+        <v>5</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>10</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="21">
+        <v>43815</v>
+      </c>
+      <c r="F104" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G104" s="8">
+        <v>6</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <v>10</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="21">
+        <v>43816</v>
+      </c>
+      <c r="F105" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="G105" s="81">
+        <v>6</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <v>10</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="21">
+        <v>43817</v>
+      </c>
+      <c r="F106" s="81">
+        <v>4</v>
+      </c>
+      <c r="G106" s="81">
+        <v>4</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <v>10</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" s="21">
+        <v>43818</v>
+      </c>
+      <c r="F107" s="81">
+        <v>6</v>
+      </c>
+      <c r="G107" s="81">
+        <v>6</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12">
+        <v>10</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="21">
+        <v>43819</v>
+      </c>
+      <c r="F108" s="81">
+        <v>6</v>
+      </c>
+      <c r="G108" s="81">
+        <v>6</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="84">
+        <f>SUM(F103:F109)</f>
+        <v>32</v>
+      </c>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="84">
+        <f>SUM(G103:G109)</f>
+        <v>33</v>
+      </c>
+      <c r="I110" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
+  <mergeCells count="21">
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C29 C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21 C32 C54 C43 C65 C76 C87 C98 C109" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C18 C9:D9 C4:C8 C23:C28 C34:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41 C27:C28 C49 C17:C18 C31" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H23:H29 H34:H40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H15:H21 H26:H32 H48:H54 H37:H43 H59:H65 H70:H76 H81:H87 H92:H98 H103:H109" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B22 B33">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B25 B47 B36 B14 B58 B69 B80 B91 B102" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
@@ -5538,8 +6539,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5570,17 +6571,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -5622,7 +6623,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" s="67">
         <v>43766</v>
@@ -5699,7 +6700,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E7" s="68">
         <v>43769</v>
@@ -5726,7 +6727,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E8" s="66">
         <v>43739</v>
@@ -5753,7 +6754,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E9" s="66">
         <v>43740</v>
@@ -5787,21 +6788,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="84">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="84">
         <f>SUM(G4:G10)</f>
         <v>29</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -5815,7 +6816,7 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -5836,7 +6837,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -5857,7 +6858,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -5878,7 +6879,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -5899,7 +6900,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -5945,21 +6946,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="84">
         <f>SUM(F12:F18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="84">
         <f>SUM(G12:G18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5970,17 +6971,17 @@
     <mergeCell ref="H19:I19"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>
